--- a/store/5challenges.xlsx
+++ b/store/5challenges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\流空\Desktop\データ\chest-main\store\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\流空\make\data\chest\store\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF73D128-CF33-4826-9F0D-D1889AB9836A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFBB41F-3A7C-4AC5-807C-18B3965A720C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="2" xr2:uid="{53AF749E-BA37-48EB-A6DD-9C74E7872D43}"/>
+    <workbookView xWindow="11592" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="3" xr2:uid="{53AF749E-BA37-48EB-A6DD-9C74E7872D43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="438">
   <si>
     <t>性別</t>
     <rPh sb="0" eb="2">
@@ -2195,10 +2195,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>1:23.6</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>1:45.0</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2224,23 +2220,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>1:59.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>2:16.5</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>1:50.9</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>2:06.9</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:47.1</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2267,26 +2251,6 @@
     <phoneticPr fontId="20"/>
   </si>
   <si>
-    <t>1:57.4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:56.2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:57.6</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:47.3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:47.9</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>1:27.7</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2299,19 +2263,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>1:24.9</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:19.7</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>1:20.4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:20.0</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2320,6 +2272,86 @@
       <t>タカハシ</t>
     </rPh>
     <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>1:19.3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:24.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:23.5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:20.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:21.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:24.9</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:25.5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:39.4</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>1:47.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:50.8</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:47.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:48.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:47.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:54.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:57.4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:56.4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:58.6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:55.9</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:54.8</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:55.3</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -3337,7 +3369,7 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3919,6 +3951,9 @@
     <xf numFmtId="49" fontId="37" fillId="15" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -4276,8 +4311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67508B83-D61A-4085-8CA8-16BC1AA41CEC}">
   <dimension ref="A1:M173"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C2:C45"/>
+    <sheetView topLeftCell="A17" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
@@ -4588,10 +4623,18 @@
       <c r="C13" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="183"/>
+      <c r="D13" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="137" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="140">
+        <v>126</v>
+      </c>
+      <c r="G13" s="183" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="19.2">
       <c r="A14" s="150" t="str">
@@ -5063,10 +5106,18 @@
       <c r="C34" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="81"/>
-      <c r="E34" s="137"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="183"/>
+      <c r="D34" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="137" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="140">
+        <v>119</v>
+      </c>
+      <c r="G34" s="183" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="19.2">
       <c r="A35" s="134" t="str">
@@ -5351,7 +5402,7 @@
       <c r="E47" s="82"/>
       <c r="F47" s="109"/>
       <c r="G47" s="189" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="19.2">
@@ -5364,46 +5415,46 @@
       <c r="E48" s="82"/>
       <c r="F48" s="109"/>
       <c r="G48" s="189" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="19.2">
       <c r="A49" s="74"/>
       <c r="B49" s="10"/>
       <c r="C49" s="77" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D49" s="81"/>
       <c r="E49" s="82"/>
       <c r="F49" s="109"/>
       <c r="G49" s="189" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="19.2">
       <c r="A50" s="74"/>
       <c r="B50" s="10"/>
       <c r="C50" s="77" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D50" s="81"/>
       <c r="E50" s="82"/>
       <c r="F50" s="109"/>
       <c r="G50" s="189" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="19.2">
       <c r="A51" s="74"/>
       <c r="B51" s="10"/>
       <c r="C51" s="77" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D51" s="81"/>
       <c r="E51" s="82"/>
       <c r="F51" s="109"/>
       <c r="G51" s="189" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="19.2">
@@ -6430,7 +6481,7 @@
   </autoFilter>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>D46="F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6442,8 +6493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579BBE7D-3FBB-40F3-BBF0-72F43BAE7E4A}">
   <dimension ref="A1:J364"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A29" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
@@ -7266,7 +7317,7 @@
         <v>45652</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D27" s="81" t="s">
         <v>9</v>
@@ -7484,15 +7535,21 @@
       <c r="C34" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="81" t="s">
+      <c r="D34" s="75" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="157" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="158"/>
-      <c r="G34" s="182"/>
-      <c r="H34" s="159"/>
+      <c r="F34" s="195">
+        <v>353</v>
+      </c>
+      <c r="G34" s="182" t="s">
+        <v>423</v>
+      </c>
+      <c r="H34" s="159">
+        <v>50</v>
+      </c>
       <c r="I34" s="170" t="str">
         <f>VLOOKUP(C34,vlookup!$A$2:$F$47,6,FALSE)</f>
         <v>S</v>
@@ -7863,7 +7920,7 @@
       <c r="E47" s="76"/>
       <c r="F47" s="165"/>
       <c r="G47" s="194" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="H47" s="168"/>
       <c r="I47" s="170"/>
@@ -7878,7 +7935,7 @@
       <c r="E48" s="76"/>
       <c r="F48" s="165"/>
       <c r="G48" s="194" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H48" s="168"/>
       <c r="I48" s="170"/>
@@ -7887,13 +7944,13 @@
       <c r="A49" s="134"/>
       <c r="B49" s="10"/>
       <c r="C49" s="66" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D49" s="81"/>
       <c r="E49" s="76"/>
       <c r="F49" s="165"/>
       <c r="G49" s="194" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="H49" s="168"/>
       <c r="I49" s="170"/>
@@ -7902,13 +7959,13 @@
       <c r="A50" s="134"/>
       <c r="B50" s="10"/>
       <c r="C50" s="66" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D50" s="81"/>
       <c r="E50" s="76"/>
       <c r="F50" s="165"/>
       <c r="G50" s="194" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H50" s="168"/>
       <c r="I50" s="170"/>
@@ -7917,7 +7974,7 @@
       <c r="A51" s="134"/>
       <c r="B51" s="10"/>
       <c r="C51" s="66" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D51" s="81"/>
       <c r="E51" s="76"/>
@@ -9835,12 +9892,12 @@
   </autoFilter>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>D2="F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>D34="F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9852,8 +9909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A15888D-BAC3-4C4E-BE97-48B4FC3BDE76}">
   <dimension ref="A1:AR374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="64" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="B4" zoomScale="64" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
@@ -12931,7 +12988,7 @@
         <v>45651</v>
       </c>
       <c r="C27" s="100" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D27" s="44">
         <f>VLOOKUP(C27,vlookup!$A$2:$F$47,3,FALSE)</f>
@@ -13741,7 +13798,9 @@
         <f>VLOOKUP(C34,vlookup!$A$2:$F$47,3,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E34" s="45"/>
+      <c r="E34" s="45">
+        <v>72.400000000000006</v>
+      </c>
       <c r="F34" s="45" t="s">
         <v>61</v>
       </c>
@@ -13773,9 +13832,15 @@
         <f t="shared" si="3"/>
         <v>:.</v>
       </c>
-      <c r="W34" s="184"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="52"/>
+      <c r="W34" s="184" t="s">
+        <v>425</v>
+      </c>
+      <c r="X34" s="64">
+        <v>4.6018518518518518E-3</v>
+      </c>
+      <c r="Y34" s="52">
+        <v>35</v>
+      </c>
       <c r="Z34" s="53"/>
       <c r="AA34" s="54"/>
       <c r="AB34" s="55"/>
@@ -15261,7 +15326,7 @@
         <v>:.</v>
       </c>
       <c r="W47" s="184" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="X47" s="50"/>
       <c r="Y47" s="52"/>
@@ -15322,7 +15387,7 @@
         <v>:.</v>
       </c>
       <c r="W48" s="184" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="X48" s="50"/>
       <c r="Y48" s="52"/>
@@ -15349,7 +15414,7 @@
       <c r="A49" s="42"/>
       <c r="B49" s="43"/>
       <c r="C49" s="100" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D49" s="44"/>
       <c r="E49" s="45"/>
@@ -15383,7 +15448,7 @@
         <v>:.</v>
       </c>
       <c r="W49" s="184" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="X49" s="50"/>
       <c r="Y49" s="52"/>
@@ -15410,7 +15475,7 @@
       <c r="A50" s="42"/>
       <c r="B50" s="43"/>
       <c r="C50" s="100" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D50" s="44"/>
       <c r="E50" s="45"/>
@@ -15444,7 +15509,7 @@
         <v>:.</v>
       </c>
       <c r="W50" s="184" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="X50" s="50"/>
       <c r="Y50" s="52"/>
@@ -15471,7 +15536,7 @@
       <c r="A51" s="42"/>
       <c r="B51" s="43"/>
       <c r="C51" s="100" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D51" s="44"/>
       <c r="E51" s="45"/>
@@ -15505,7 +15570,7 @@
         <v>:.</v>
       </c>
       <c r="W51" s="184" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="X51" s="50"/>
       <c r="Y51" s="52"/>
@@ -30215,7 +30280,7 @@
   </autoFilter>
   <phoneticPr fontId="20"/>
   <conditionalFormatting sqref="C2:C374">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>D2="F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30227,8 +30292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3652A5-F015-4815-B7EB-8DF15E25860A}">
   <dimension ref="A1:O511"/>
   <sheetViews>
-    <sheetView zoomScale="65" workbookViewId="0">
-      <selection activeCell="C45" sqref="C2:C45"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="22.2"/>
@@ -31771,13 +31836,27 @@
       <c r="F34" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="185"/>
-      <c r="L34" s="132"/>
-      <c r="M34" s="96"/>
+      <c r="G34" s="13">
+        <v>1.2488425925925926E-3</v>
+      </c>
+      <c r="H34" s="14">
+        <v>1.2523148148148148E-3</v>
+      </c>
+      <c r="I34" s="14">
+        <v>1.2488425925925926E-3</v>
+      </c>
+      <c r="J34" s="14">
+        <v>1.2037037037037038E-3</v>
+      </c>
+      <c r="K34" s="185" t="s">
+        <v>426</v>
+      </c>
+      <c r="L34" s="132">
+        <v>5607</v>
+      </c>
+      <c r="M34" s="96">
+        <v>27</v>
+      </c>
       <c r="N34" s="59" t="str">
         <f>VLOOKUP(C34,vlookup!$A$2:$F$47,6,FALSE)</f>
         <v>S</v>
@@ -32338,7 +32417,7 @@
       <c r="I47" s="94"/>
       <c r="J47" s="94"/>
       <c r="K47" s="185" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="L47" s="133"/>
       <c r="M47" s="95"/>
@@ -32358,7 +32437,7 @@
       <c r="I48" s="94"/>
       <c r="J48" s="94"/>
       <c r="K48" s="185" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L48" s="133"/>
       <c r="M48" s="95"/>
@@ -32368,7 +32447,7 @@
       <c r="A49" s="9"/>
       <c r="B49" s="10"/>
       <c r="C49" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D49" s="63"/>
       <c r="E49" s="11"/>
@@ -32378,7 +32457,7 @@
       <c r="I49" s="94"/>
       <c r="J49" s="94"/>
       <c r="K49" s="185" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="L49" s="133"/>
       <c r="M49" s="95"/>
@@ -32388,7 +32467,7 @@
       <c r="A50" s="9"/>
       <c r="B50" s="10"/>
       <c r="C50" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D50" s="63"/>
       <c r="E50" s="11"/>
@@ -32398,7 +32477,7 @@
       <c r="I50" s="94"/>
       <c r="J50" s="94"/>
       <c r="K50" s="185" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="L50" s="133"/>
       <c r="M50" s="95"/>
@@ -32408,7 +32487,7 @@
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D51" s="63"/>
       <c r="E51" s="11"/>
@@ -32418,7 +32497,7 @@
       <c r="I51" s="94"/>
       <c r="J51" s="94"/>
       <c r="K51" s="185" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="L51" s="133"/>
       <c r="M51" s="95"/>
@@ -39498,7 +39577,7 @@
   </autoFilter>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>#REF!="F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39510,8 +39589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BB41AD-1513-47A8-9A1B-9E30D405B3E1}">
   <dimension ref="A1:M343"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="74" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C45"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
@@ -40158,13 +40237,27 @@
       <c r="E16" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="163"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="187"/>
-      <c r="L16" s="90"/>
+      <c r="F16" s="163">
+        <v>15330</v>
+      </c>
+      <c r="G16" s="86">
+        <v>1.3333333333333333E-3</v>
+      </c>
+      <c r="H16" s="86">
+        <v>1.3657407407407407E-3</v>
+      </c>
+      <c r="I16" s="86">
+        <v>1.3807870370370369E-3</v>
+      </c>
+      <c r="J16" s="86">
+        <v>1.3541666666666667E-3</v>
+      </c>
+      <c r="K16" s="187" t="s">
+        <v>432</v>
+      </c>
+      <c r="L16" s="90">
+        <v>24</v>
+      </c>
       <c r="M16" s="89" t="str">
         <f>VLOOKUP(C16,vlookup!$A$2:$F$47,6,FALSE)</f>
         <v>B</v>
@@ -40609,7 +40702,7 @@
         <v>45653</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D27" s="75" t="s">
         <v>9</v>
@@ -40917,13 +41010,27 @@
       <c r="E34" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="163"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="187"/>
-      <c r="L34" s="90"/>
+      <c r="F34" s="163">
+        <v>15755</v>
+      </c>
+      <c r="G34" s="86">
+        <v>1.3206018518518519E-3</v>
+      </c>
+      <c r="H34" s="86">
+        <v>1.3252314814814815E-3</v>
+      </c>
+      <c r="I34" s="86">
+        <v>1.3298611111111111E-3</v>
+      </c>
+      <c r="J34" s="86">
+        <v>1.3078703703703703E-3</v>
+      </c>
+      <c r="K34" s="187" t="s">
+        <v>431</v>
+      </c>
+      <c r="L34" s="90">
+        <v>24</v>
+      </c>
       <c r="M34" s="89" t="str">
         <f>VLOOKUP(C34,vlookup!$A$2:$F$47,6,FALSE)</f>
         <v>S</v>
@@ -41119,25 +41226,25 @@
         <v>101</v>
       </c>
       <c r="F39" s="163">
-        <v>14601</v>
+        <v>15454</v>
       </c>
       <c r="G39" s="86">
-        <v>1.3356481481481483E-3</v>
+        <v>1.3587962962962963E-3</v>
       </c>
       <c r="H39" s="86">
-        <v>1.4490740740740742E-3</v>
+        <v>1.3680555555555555E-3</v>
       </c>
       <c r="I39" s="86">
-        <v>1.5706018518518517E-3</v>
+        <v>1.3518518518518519E-3</v>
       </c>
       <c r="J39" s="86">
-        <v>1.3703703703703705E-3</v>
+        <v>1.3125000000000001E-3</v>
       </c>
       <c r="K39" s="187" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="L39" s="90">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M39" s="89" t="str">
         <f>VLOOKUP(C39,vlookup!$A$2:$F$47,6,FALSE)</f>
@@ -41431,7 +41538,7 @@
       <c r="I47" s="86"/>
       <c r="J47" s="86"/>
       <c r="K47" s="187" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="L47" s="90"/>
       <c r="M47" s="89"/>
@@ -41450,7 +41557,7 @@
       <c r="I48" s="86"/>
       <c r="J48" s="86"/>
       <c r="K48" s="187" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L48" s="90"/>
       <c r="M48" s="89"/>
@@ -41459,7 +41566,7 @@
       <c r="A49" s="134"/>
       <c r="B49" s="10"/>
       <c r="C49" s="66" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D49" s="75"/>
       <c r="E49" s="76"/>
@@ -41469,7 +41576,7 @@
       <c r="I49" s="86"/>
       <c r="J49" s="86"/>
       <c r="K49" s="187" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="L49" s="90"/>
       <c r="M49" s="89"/>
@@ -41478,7 +41585,7 @@
       <c r="A50" s="134"/>
       <c r="B50" s="10"/>
       <c r="C50" s="66" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D50" s="75"/>
       <c r="E50" s="76"/>
@@ -41488,7 +41595,7 @@
       <c r="I50" s="86"/>
       <c r="J50" s="86"/>
       <c r="K50" s="187" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="L50" s="90"/>
       <c r="M50" s="89"/>
@@ -41497,7 +41604,7 @@
       <c r="A51" s="134"/>
       <c r="B51" s="10"/>
       <c r="C51" s="66" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D51" s="75"/>
       <c r="E51" s="76"/>
@@ -41507,7 +41614,7 @@
       <c r="I51" s="86"/>
       <c r="J51" s="86"/>
       <c r="K51" s="187" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="L51" s="90"/>
       <c r="M51" s="89"/>
@@ -51295,7 +51402,7 @@
   </autoFilter>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="A2:A79">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>B2="F"</formula>
     </cfRule>
   </conditionalFormatting>
